--- a/biology/Biologie cellulaire et moléculaire/Coloration_de_Grocott/Coloration_de_Grocott.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Coloration_de_Grocott/Coloration_de_Grocott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En pathologie, la coloration à l' argent de méthénamine de Grocott-Gomori (abrégée GMS en anglais, pour Grocott's methenamine stain) ou plus communément coloration de Grocott, est une méthode de coloration populaire en histologie. La coloration doit son nom à György Gömöri, médecin hongrois qui l'a inventé.
-Elle est largement utilisée pour détecter les organismes fongiques, comme Pneumocystis jiroveci[1], agent responsable de la pneumocystose.
+Elle est largement utilisée pour détecter les organismes fongiques, comme Pneumocystis jiroveci, agent responsable de la pneumocystose.
 La coloration donne un aspect brun à noir aux parois cellulaires.
 La coloration repose sur la réduction des ions d'argent, ce qui rend la paroi cellulaire fongique noire. Cela est rendu possible car la paroi cellulaire fongique contient généralement des polysaccharides.
 Au cours de la coloration, de l'acide chromique est d'abord utilisé pour oxyder les polysaccharides, ceci générant des aldéhydes. Ensuite, la solution alcaline de methenamine d'argent de Grocott est appliquée, ce qui réduit les ions d'argent en argent amorphe noir. 
-La réaction de réduction par la paroi cellulaire fongique est souvent connue sous le nom de réaction argentaffine[2].
+La réaction de réduction par la paroi cellulaire fongique est souvent connue sous le nom de réaction argentaffine.
 </t>
         </is>
       </c>
